--- a/PlaywrightTests/CMB/PROD/xlsx_prod_catalog_SCF_prod_file_base_checkroutine_customer.xlsx
+++ b/PlaywrightTests/CMB/PROD/xlsx_prod_catalog_SCF_prod_file_base_checkroutine_customer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://proactis-my.sharepoint.com/personal/wai-ho_leung_proactis_com/Documents/Documents/eCat/Test Data/CM PROD/xlsx R23.5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RegoMarketplace\smoke-auto-cm\PlaywrightTests\CMB\PROD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:4000b_{7BE5815B-3DFD-4CBE-8DA5-9F4D878EAE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E71E8074-4AC0-4FE7-AD02-7ECBDEB7A92D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5E7AC-3DAA-4041-BA10-C1EBF3E43930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1380" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1335" windowWidth="20985" windowHeight="9705" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="3" r:id="rId1"/>
@@ -8453,7 +8453,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75"/>
